--- a/Result/check3/2025-02-25.xlsx
+++ b/Result/check3/2025-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP12"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,200 +446,185 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>_quote</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>成交股數</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rt_量</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>箱型力量</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>量能</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>now_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rt_price</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>盤後量</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>成交量</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>淨值倍率</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>_quote</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>價能</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>MA5_%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>均價_%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>MACD_%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>MACD</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>MACD-SL</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>LevelArea</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>短交易量o</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>遠交易量o</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Trend_change</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>highlight_date</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>highlight_enddate</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>淨值倍率</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>盤後量</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>成交量</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>量比</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>now_price</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>rt_price</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>LevelArea</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>over_%</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>均價_%</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>MACD_%</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>MACD</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>MACD-SL</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>價能O</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>成交股數</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>rt_量</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>短交易量o</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>遠交易量o</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Trend_change</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>highlight_date</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>highlight_enddate</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>成交金額</t>
-        </is>
-      </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>change_quote</t>
+          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>價能</t>
+          <t>Type0</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Type0</t>
+          <t>Type1</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Type1</t>
+          <t>Type2</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Type2</t>
+          <t>殖利率</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>殖利率</t>
+          <t>每股營收(元)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>每股淨值(元)</t>
+          <t>本益比</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>每股營收(元)</t>
+          <t>同業平均本益比</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>本益比</t>
+          <t>總市值</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>同業平均本益比</t>
+          <t>營收比重</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>總市值</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Volume_Price_Change_sum</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>營收比重</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
@@ -653,112 +638,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6443</t>
+          <t>8147</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>-4.69</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>4176.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-7.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>49.05</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>121.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5815</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>10.15</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>19.55</t>
+          <t>5311</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>11.32</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>10351.502</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -768,92 +753,77 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>208511292.0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-3.46</t>
+          <t>-214647.0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>-3.32</t>
+          <t>正淩</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>元晶</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>14.63</t>
+          <t>70.15</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>68.09</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>61.09</t>
+          <t>5567</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>61.2</t>
+          <t>連接器75.66%、背板, 機箱等電子構裝產品20.49%、其他3.86% (2023年)</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>10025</t>
+          <t>正淩-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>147718749.0</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>太陽能模組94.95%、太陽能電池3.10%、其他營業收入1.95% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>元晶-光電業-上市</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>光電業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
     </row>
@@ -865,207 +835,192 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3059</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>9693.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-3.97</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>-2.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>40.5</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>5707</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>59</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>278</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>50356</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>-37.44</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>47.15</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>116818.069</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>172.0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>59.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>5620499007.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-2.68</t>
+          <t>339848.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>-5.51</t>
+          <t>協易機</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>華晶科</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>32.86</t>
+          <t>42.76</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>46.11</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>6504</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>61.2</t>
+          <t>沖床95.58%、其他4.42% (2023年)</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>14418</t>
+          <t>協易機-電機機械-上櫃</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>7378000746.0</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>數位影像相關應用產品100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>華晶科-光電業-上市</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>光電業右上</t>
+          <t>電機機械右上</t>
         </is>
       </c>
     </row>
@@ -1077,207 +1032,192 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>-10.15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>33650.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-10.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>62.35</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>61.8</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>48436</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>41.05</t>
+          <t>8407</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
           <t>95.0</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>37592.951</t>
-        </is>
-      </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>112.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>1522402160.0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2639547.0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>信立</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>12.48</t>
+          <t>4738</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>13.66</t>
+          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>805414</t>
+          <t>信立-塑膠工業-上櫃</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>4545390815.0</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>淨利息收益96.70%、公平價值變動之金融資產與金29.23%、手續費及佣金20.94%、透過其他綜合損益按公允價值5.63%、外匯價格變動準備淨變動4.56%、其他利息以外淨收益1.32%、投資性不動產1.23%、兌換損益1.08%、權益法投資收益-關聯和合營公0.43%、除列按攤銷後成本衡量金融資0.19% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>中信金-金融保險-上市</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>金融保險右上</t>
+          <t>塑膠工業右上</t>
         </is>
       </c>
     </row>
@@ -1289,112 +1229,112 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>3059</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>116818.069</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>49.1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>28995</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>0.71</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>31380</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>23.75</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-1.30</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>66985.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>172.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>245.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>87.0</t>
+          <t>-3.7</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1404,92 +1344,77 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>1542015.0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>7378000746.0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>華晶科</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>正德</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>22.77</t>
+          <t>41.17</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>61.45</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>12.12</t>
+          <t>14480</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>28.9</t>
+          <t>數位影像相關應用產品100.00% (2023年)</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>7387</t>
+          <t>華晶科-光電業-上市</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2313857.0</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>租賃及船舶管理100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>正德-航運業-上櫃</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>航運業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
     </row>
@@ -1501,207 +1426,192 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>37592.951</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-2.32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>11.85</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>40.65</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>23857</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-32.22</t>
+          <t>170</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>55506</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>95.0</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-1.18</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>53500.229</t>
-        </is>
-      </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>4428574646.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4545390815.0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
+          <t>中信金</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
           <t>4.39</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>慧洋-KY</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>航運業</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>12.46</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>804433</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>淨利息收益96.70%、公平價值變動之金融資產與金29.23%、手續費及佣金20.94%、透過其他綜合損益按公允價值5.63%、外匯價格變動準備淨變動4.56%、其他利息以外淨收益1.32%、投資性不動產1.23%、兌換損益1.08%、權益法投資收益-關聯和合營公0.43%、除列按攤銷後成本衡量金融資0.19% (2023年)</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>59713</t>
+          <t>中信金-金融保險-上市</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>-2470356516.0</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>租金收入98.05%、其他1.55%、運費0.29%、船舶管理0.12% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>慧洋-KY-航運業-上市</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>航運業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
     </row>
@@ -1713,207 +1623,192 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>159098.519</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>50.97</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>9032</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>218</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>65027</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>-2.96</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>-2260779042.0</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>華邦電</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>12778.843</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>1094984937.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>萬海</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>航運業</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>142.69</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>19.42</t>
+          <t>61.24</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>83475</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>邏輯產品46.51%、FLASH產品32.06%、動態隨機存取記憶體產品(DRAM18.71%、其他2.72% (2023年)</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>238522</t>
+          <t>華邦電-半導體業-上市</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1614202585.0</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>運輸服務100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>萬海-航運業-上市</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>航運業右上</t>
+          <t>半導體業右下</t>
         </is>
       </c>
     </row>
@@ -1925,112 +1820,112 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>160349.4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-2.09</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>84.21</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>48.25</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>83024</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-36.02</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>18.7</t>
+          <t>34461</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>159098.519</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -2040,92 +1935,77 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2999115337.0</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>9717288851.0</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>大成鋼</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>56.76</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>143.85</t>
+          <t>116236</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>60.89</t>
+          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>84150</t>
+          <t>大成鋼-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>-2260779042.0</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>邏輯產品46.51%、FLASH產品32.06%、動態隨機存取記憶體產品(DRAM18.71%、其他2.72% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>華邦電-半導體業-上市</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>半導體業右下</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
     </row>
@@ -2142,202 +2022,187 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>112923.974</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>44.48</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>53254</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
           <t>0.33</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>-50.0</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>-1.27</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>349</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>77385</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>-35.39</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>112923.974</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>13.0</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>37.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>2663755019.0</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>4767983501.0</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>19.96</t>
+          <t>181.54</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>56.76</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>184.62</t>
+          <t>371343</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>56.91</t>
+          <t>熱軋鋼品40.17%、冷軋鋼33.97%、棒鋼及線材12.54%、鋼板7.18%、H型鋼3.71%、其他鋼品1.01%、其他(非鐵產品及副產品)0.72%、窄幅鋼板0.42%、鋼管0.28% (2023年)</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>377637</t>
+          <t>中鋼-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>4767983501.0</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>熱軋鋼品40.17%、冷軋鋼33.97%、棒鋼及線材12.54%、鋼板7.18%、H型鋼3.71%、其他鋼品1.01%、其他(非鐵產品及副產品)0.72%、窄幅鋼板0.42%、鋼管0.28% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>中鋼-鋼鐵工業-上市</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>鋼鐵工業平</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
     </row>
@@ -2349,207 +2214,192 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>25921.043</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-3.28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>13.14</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>64699</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>19.03</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>20437</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>-2.81</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>512177855.0</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>中石化</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>塑膠工業</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-2.24</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>57252.985</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>63.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>1673913445.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>華新</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>電器電纜</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>34.05</t>
+          <t>25.56</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>11.57</t>
+          <t>56.48</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>40.58</t>
+          <t>30960</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>21.14</t>
+          <t>丙烯(月青),己內醯胺,尼龍粒100.00% (2023年)</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>112877</t>
+          <t>中石化-塑膠工業-上市</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>-93021239.0</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>不�袗�條棒34.28%、鎳生鐵20.59%、裸銅線13.75%、不鏽鋼鋼捲12.38%、電纜及電線8.49%、其他7.58%、無縫鋼管2.33%、鋼絞線0.61% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>華新-電器電纜-上市</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>電器電纜右下</t>
+          <t>塑膠工業右下</t>
         </is>
       </c>
     </row>
@@ -2561,112 +2411,112 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>57322.068</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-5.9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34.95</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>5140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>25.17</t>
+          <t>383</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>38.25</t>
+          <t>32793</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>32282.391</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>261.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -2676,302 +2526,75 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>1312782068.0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>-4.14</t>
+          <t>2108092614.0</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>-5.49</t>
+          <t>台泥</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>喬福</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>17.28</t>
+          <t>29.08</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>22.55</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>20.79</t>
+          <t>261271</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>46.14</t>
+          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>3269</t>
+          <t>台泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
-        <is>
-          <t>3219464793.0</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>切削中心機50.65%、CNC車床41.70%、維修7.65% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>喬福-電機機械-上市</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>電機機械右上</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1101</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>271</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>29317</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>99.45</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>35.0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>57322.068</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>71.0</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>1992310165.0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>台泥</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>31.94</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>29.41</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>22.59</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>264291</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>2108092614.0</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>台泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>

--- a/Result/check3/2025-02-25.xlsx
+++ b/Result/check3/2025-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,165 +466,170 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>箱型力量_5均</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>量能</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
@@ -638,17 +643,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8147</t>
+          <t>9907</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-4.69</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4176.0</t>
+          <t>3125.965</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -658,172 +663,177 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-7.43</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>49.05</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>121.0</t>
+          <t>28.09</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>16.1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>5311</t>
+          <t>36</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>10516</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>13.17</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>-0.88</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-214647.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>正淩</t>
+          <t>86120741.0</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>統一實</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>70.15</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>17.37</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>5567</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>連接器75.66%、背板, 機箱等電子構裝產品20.49%、其他3.86% (2023年)</t>
+          <t>26609</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>正淩-電子零組件業-上櫃</t>
+          <t>Pet瓶及TP48.89%、鋼板32.37%、底片8.20%、鐵罐6.16%、PET瓶蓋2.68%、其他1.71% (2023年)</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>統一實-其他-上市</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>其他平</t>
         </is>
       </c>
     </row>
@@ -835,17 +845,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4533</t>
+          <t>8147</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-4.69</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9693.0</t>
+          <t>4176.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -855,172 +865,177 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.08</t>
+          <t>-7.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>40.5</t>
+          <t>49.05</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5707</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>5311</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>54</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>339848.0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>協易機</t>
+          <t>-214647.0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>正淩</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>42.76</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>46.11</t>
+          <t>70.15</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>6504</t>
+          <t>68.09</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>沖床95.58%、其他4.42% (2023年)</t>
+          <t>5567</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>協易機-電機機械-上櫃</t>
+          <t>連接器75.66%、背板, 機箱等電子構裝產品20.49%、其他3.86% (2023年)</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>正淩-電子零組件業-上櫃</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
         </is>
       </c>
     </row>
@@ -1032,17 +1047,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-10.15</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33650.0</t>
+          <t>2252.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1052,172 +1067,177 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-10.84</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>62.35</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>61.8</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>8407</t>
+          <t>39</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>17589</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>-34.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>89</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
+          <t>-7.5</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2639547.0</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>信立</t>
+          <t>203411.0</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
+          <t>資訊服務業</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>12.76</t>
+          <t>25.48</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>4738</t>
+          <t>29.76</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
+          <t>1864</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>信立-塑膠工業-上櫃</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>塑膠工業右上</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>資訊服務業右上</t>
         </is>
       </c>
     </row>
@@ -1229,17 +1249,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3059</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>116818.069</t>
+          <t>143010.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1249,172 +1269,177 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>-3.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>61.9</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>28995</t>
+          <t>111</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>25237</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>172.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>170.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-3.7</t>
+          <t>78</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
+          <t>-6.91</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>7378000746.0</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>華晶科</t>
+          <t>14653147.0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>高鋒</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>41.17</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>61.45</t>
+          <t>55.67</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>14480</t>
+          <t>46.15</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>數位影像相關應用產品100.00% (2023年)</t>
+          <t>6254</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>華晶科-光電業-上市</t>
+          <t>龍門切削中心機50.45%、立式切削中心機36.11%、臥式切削中心機7.41%、其他6.02% (2023年)</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>高鋒-電機機械-上櫃</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>電機機械右上</t>
         </is>
       </c>
     </row>
@@ -1426,17 +1451,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>-10.15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>37592.951</t>
+          <t>33650.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1446,172 +1471,177 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>-10.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11.85</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>40.65</t>
+          <t>62.35</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>61.8</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>55506</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>8451</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>95.0</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>112.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>80</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>4545390815.0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>2639547.0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>信立</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>804433</t>
+          <t>12.98</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>淨利息收益96.70%、公平價值變動之金融資產與金29.23%、手續費及佣金20.94%、透過其他綜合損益按公允價值5.63%、外匯價格變動準備淨變動4.56%、其他利息以外淨收益1.32%、投資性不動產1.23%、兌換損益1.08%、權益法投資收益-關聯和合營公0.43%、除列按攤銷後成本衡量金融資0.19% (2023年)</t>
+          <t>4896</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>中信金-金融保險-上市</t>
+          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>信立-塑膠工業-上櫃</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>塑膠工業右上</t>
         </is>
       </c>
     </row>
@@ -1623,17 +1653,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>3059</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>159098.519</t>
+          <t>116818.069</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1643,172 +1673,177 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>50.97</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>49.1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>65027</t>
+          <t>161</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>27742</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>172.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-2.96</t>
+          <t>59</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
+          <t>-4.58</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>2025-01-20</t>
-        </is>
-      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>-2260779042.0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>7378000746.0</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>華晶科</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>142.69</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>61.24</t>
+          <t>40.83</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>83475</t>
+          <t>62.41</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>邏輯產品46.51%、FLASH產品32.06%、動態隨機存取記憶體產品(DRAM18.71%、其他2.72% (2023年)</t>
+          <t>14357</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>華邦電-半導體業-上市</t>
+          <t>數位影像相關應用產品100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>華晶科-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
         </is>
       </c>
     </row>
@@ -1820,17 +1855,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2903</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8.39</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>160349.4</t>
+          <t>3460.313</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1840,172 +1875,177 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>-1.23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>48.25</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>34461</t>
+          <t>79</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>9054</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>15</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>2025-01-03</t>
-        </is>
-      </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>9717288851.0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>大成鋼</t>
+          <t>255319181.0</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>遠百</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
+          <t>貿易百貨</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>56.76</t>
+          <t>17.38</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>116236</t>
+          <t>79.07</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
+          <t>36203</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>大成鋼-鋼鐵工業-上市</t>
+          <t>商品銷售55.57%、專櫃抽成35.91%、不動產租金4.18%、其他2.20%、廣告及促銷2.13% (2023年)</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>遠百-貿易百貨-上市</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>貿易百貨平</t>
         </is>
       </c>
     </row>
@@ -2017,17 +2057,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>112923.974</t>
+          <t>66985.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2037,172 +2077,177 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>44.48</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>23.9</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>453</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>53254</t>
+          <t>82</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>24135</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>245.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-1.27</t>
+          <t>87</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>4767983501.0</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>2313857.0</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>正德</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>181.54</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>56.76</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>371343</t>
+          <t>29.55</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>熱軋鋼品40.17%、冷軋鋼33.97%、棒鋼及線材12.54%、鋼板7.18%、H型鋼3.71%、其他鋼品1.01%、其他(非鐵產品及副產品)0.72%、窄幅鋼板0.42%、鋼管0.28% (2023年)</t>
+          <t>7511</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>中鋼-鋼鐵工業-上市</t>
+          <t>租賃及船舶管理100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>正德-航運業-上櫃</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>航運業右上</t>
         </is>
       </c>
     </row>
@@ -2214,17 +2259,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1314</t>
+          <t>2402</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25921.043</t>
+          <t>2984.429</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2234,172 +2279,177 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13.14</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>40.55</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>20437</t>
+          <t>36</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>5506</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>120.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>60</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>512177855.0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>中石化</t>
+          <t>592564097.0</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>毅嘉</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>25.56</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>56.48</t>
+          <t>19.76</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>30960</t>
+          <t>34.72</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>丙烯(月青),己內醯胺,尼龍粒100.00% (2023年)</t>
+          <t>12763</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>中石化-塑膠工業-上市</t>
+          <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>塑膠工業右下</t>
+          <t>毅嘉-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
         </is>
       </c>
     </row>
@@ -2411,190 +2461,1407 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2344</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>159098.519</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>50.97</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>54459</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>-1.6</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>-2260779042.0</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>華邦電</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>144.62</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>62.63</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>84600</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>邏輯產品46.51%、FLASH產品32.06%、動態隨機存取記憶體產品(DRAM18.71%、其他2.72% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>華邦電-半導體業-上市</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>半導體業右下</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17733.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>8146</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>425629886.0</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>新鋼</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>60.31</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>2767</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>不�袗�板等100.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>新鋼-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>鋼鐵工業右上</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2027</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>160349.4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>48.25</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>64566</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>9717288851.0</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>大成鋼</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>38.67</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>60.31</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>120496</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>大成鋼-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>鋼鐵工業右上</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>112923.974</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>44.48</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>59777</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>4767983501.0</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>中鋼</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>185.38</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>60.31</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>379210</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>熱軋鋼品40.17%、冷軋鋼33.97%、棒鋼及線材12.54%、鋼板7.18%、H型鋼3.71%、其他鋼品1.01%、其他(非鐵產品及副產品)0.72%、窄幅鋼板0.42%、鋼管0.28% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>中鋼-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>鋼鐵工業平</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1605</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-2.23</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>57252.985</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-2.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>18.84</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>28.95</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>38466</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>-2.3</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>-93021239.0</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>華新</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>電器電纜</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>41.01</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>114087</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>商品銷售97.00%、其他3.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>華新-電器電纜-上市</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>電器電纜右下</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1314</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25921.043</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>15604</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>-1.33</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>512177855.0</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>中石化</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>塑膠工業</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>57.91</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>31414</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>丙烯(月青),己內醯胺,尼龍粒100.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>中石化-塑膠工業-上市</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>塑膠工業右下</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>1101</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>2.81</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>57322.068</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>3.28</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>100.00</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>34.95</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>383</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>32793</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>27309</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>1.09</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>0.75</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>0.69</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>0.40</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>71.0</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>-1.01</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>2108092614.0</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
         <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>29.08</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>22.55</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>261271</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>29.54</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>265424</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
         <is>
           <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>

--- a/Result/check3/2025-02-25.xlsx
+++ b/Result/check3/2025-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN17"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,12 +688,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>41</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10516</t>
+          <t>9307</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -748,34 +748,34 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
           <t>86120741.0</t>
@@ -798,7 +798,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -808,17 +808,17 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>17.37</t>
+          <t>17.89</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>38.11</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>26609</t>
+          <t>27398</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -845,17 +845,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8147</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-4.69</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4176.0</t>
+          <t>2252.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -865,22 +865,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-7.43</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>49.05</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>121.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -890,52 +890,52 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5311</t>
+          <t>6829</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>13.17</t>
+          <t>-4.21</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>-34.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>89.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>-9.69</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -965,32 +965,32 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>-214647.0</t>
+          <t>203411.0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>正淩</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1000,42 +1000,42 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>70.15</t>
+          <t>24.97</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>30.29</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>5567</t>
+          <t>1827</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>連接器75.66%、背板, 機箱等電子構裝產品20.49%、其他3.86% (2023年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>正淩-電子零組件業-上櫃</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
     </row>
@@ -1047,17 +1047,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2252.0</t>
+          <t>143010.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1067,22 +1067,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>-3.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>61.9</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1092,72 +1092,72 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>17589</t>
+          <t>19663</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>-5.03</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-34.0</t>
+          <t>170.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-7.5</t>
+          <t>-11.13</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1167,32 +1167,32 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>203411.0</t>
+          <t>14653147.0</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>驊宏資</t>
+          <t>高鋒</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1202,42 +1202,42 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>25.48</t>
+          <t>53.56</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>29.76</t>
+          <t>45.72</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>6016</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>龍門切削中心機50.45%、立式切削中心機36.11%、臥式切削中心機7.41%、其他6.02% (2023年)</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>高鋒-電機機械-上櫃</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>電機機械右上</t>
         </is>
       </c>
     </row>
@@ -1249,17 +1249,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>-10.15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>143010.0</t>
+          <t>33650.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1269,22 +1269,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-3.99</t>
+          <t>-10.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>62.35</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>61.9</t>
+          <t>61.8</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1294,32 +1294,32 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>155</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>25237</t>
+          <t>21152</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1349,17 +1349,17 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>170.0</t>
+          <t>112.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-6.91</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1369,32 +1369,32 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>14653147.0</t>
+          <t>2639547.0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>高鋒</t>
+          <t>信立</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1404,42 +1404,42 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>55.67</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>46.15</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>6254</t>
+          <t>5132</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>龍門切削中心機50.45%、立式切削中心機36.11%、臥式切削中心機7.41%、其他6.02% (2023年)</t>
+          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>高鋒-電機機械-上櫃</t>
+          <t>信立-塑膠工業-上櫃</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>塑膠工業右上</t>
         </is>
       </c>
     </row>
@@ -1451,17 +1451,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>3209</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-10.15</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>33650.0</t>
+          <t>2984.666</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1471,22 +1471,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-10.84</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>62.35</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>61.8</t>
+          <t>37.45</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1496,72 +1496,72 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>134</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>8451</t>
+          <t>5279</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1571,77 +1571,77 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2639547.0</t>
+          <t>155054965.0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>信立</t>
+          <t>全科</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>12.98</t>
+          <t>17.23</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>4896</t>
+          <t>9041</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
+          <t>無線通訊元件47.47%、有線寬頻元件35.61%、其他16.91% (2023年)</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>信立-塑膠工業-上櫃</t>
+          <t>全科-電子通路業-上市</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>塑膠工業右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
     </row>
@@ -1698,12 +1698,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>225</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>27742</t>
+          <t>17104</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1713,12 +1713,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-3.86</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1758,34 +1758,34 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>-8.39</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
           <t>59</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>-4.58</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
           <t>7378000746.0</t>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1818,17 +1818,17 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>40.83</t>
+          <t>39.39</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>62.41</t>
+          <t>62.59</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>14357</t>
+          <t>13853</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -1855,17 +1855,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2903</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3460.313</t>
+          <t>66985.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1875,22 +1875,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1.23</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>24.35</t>
+          <t>22.95</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1900,72 +1900,72 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>68</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>9054</t>
+          <t>16609</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>245.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>87.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1975,77 +1975,77 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>255319181.0</t>
+          <t>2313857.0</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>遠百</t>
+          <t>正德</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>貿易百貨</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>17.38</t>
+          <t>11.94</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>79.07</t>
+          <t>29.32</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>36203</t>
+          <t>7278</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>商品銷售55.57%、專櫃抽成35.91%、不動產租金4.18%、其他2.20%、廣告及促銷2.13% (2023年)</t>
+          <t>租賃及船舶管理100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>遠百-貿易百貨-上市</t>
+          <t>正德-航運業-上櫃</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>航運業右上</t>
         </is>
       </c>
     </row>
@@ -2057,17 +2057,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>66985.0</t>
+          <t>159098.519</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2077,22 +2077,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>50.97</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>22.95</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2102,72 +2102,72 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>247</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>24135</t>
+          <t>49687</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-4.41</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>245.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>-5.23</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -2187,67 +2187,67 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2313857.0</t>
+          <t>-2260779042.0</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>正德</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>139.62</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>29.55</t>
+          <t>61.53</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>7511</t>
+          <t>81675</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>租賃及船舶管理100.00% (2023年)</t>
+          <t>邏輯產品46.51%、FLASH產品32.06%、動態隨機存取記憶體產品(DRAM18.71%、其他2.72% (2023年)</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>正德-航運業-上櫃</t>
+          <t>華邦電-半導體業-上市</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>半導體業右下</t>
         </is>
       </c>
     </row>
@@ -2259,17 +2259,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2402</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2984.429</t>
+          <t>160349.4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2279,97 +2279,97 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>48.25</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>75848</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>0.24</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>40.55</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>5506</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>120.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2379,32 +2379,32 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>592564097.0</t>
+          <t>9717288851.0</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>毅嘉</t>
+          <t>大成鋼</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2414,42 +2414,42 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>19.76</t>
+          <t>39.61</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>34.72</t>
+          <t>60.52</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>12763</t>
+          <t>123417</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
+          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>毅嘉-電子零組件業-上市</t>
+          <t>大成鋼-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
     </row>
@@ -2461,17 +2461,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>159098.519</t>
+          <t>112923.974</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2481,22 +2481,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>50.97</t>
+          <t>44.48</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>23.9</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2506,72 +2506,72 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>452</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>54459</t>
+          <t>74808</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2581,32 +2581,32 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>-2260779042.0</t>
+          <t>4767983501.0</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2616,42 +2616,42 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>144.62</t>
+          <t>186.54</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>62.63</t>
+          <t>60.52</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>84600</t>
+          <t>381570</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>邏輯產品46.51%、FLASH產品32.06%、動態隨機存取記憶體產品(DRAM18.71%、其他2.72% (2023年)</t>
+          <t>熱軋鋼品40.17%、冷軋鋼33.97%、棒鋼及線材12.54%、鋼板7.18%、H型鋼3.71%、其他鋼品1.01%、其他(非鐵產品及副產品)0.72%、窄幅鋼板0.42%、鋼管0.28% (2023年)</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>華邦電-半導體業-上市</t>
+          <t>中鋼-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
     </row>
@@ -2663,17 +2663,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2032</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>-2.23</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17733.32</t>
+          <t>57252.985</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2683,22 +2683,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>13.15</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>88.91</t>
+          <t>18.84</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20.65</t>
+          <t>28.95</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2708,72 +2708,72 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>139</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>8146</t>
+          <t>46487</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>-3.25</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>-4.51</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2783,32 +2783,32 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>425629886.0</t>
+          <t>-93021239.0</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>新鋼</t>
+          <t>華新</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>電器電纜</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2818,42 +2818,42 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>11.57</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>81.54</t>
+          <t>40.14</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>60.31</t>
+          <t>21.29</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2767</t>
+          <t>111668</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>不�袗�板等100.00% (2023年)</t>
+          <t>商品銷售97.00%、其他3.00% (2024年)</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>新鋼-鋼鐵工業-上市</t>
+          <t>華新-電器電纜-上市</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
     </row>
@@ -2865,17 +2865,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8.39</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>160349.4</t>
+          <t>25921.043</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2885,22 +2885,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>13.14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>48.25</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2910,72 +2910,72 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>80</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>64566</t>
+          <t>11046</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>-2.69</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2985,32 +2985,32 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>9717288851.0</t>
+          <t>512177855.0</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>大成鋼</t>
+          <t>中石化</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -3020,42 +3020,42 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>38.67</t>
+          <t>25.59</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>60.31</t>
+          <t>57.54</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>120496</t>
+          <t>30998</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
+          <t>丙烯(月青),己內醯胺,尼龍粒100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>大成鋼-鋼鐵工業-上市</t>
+          <t>中石化-塑膠工業-上市</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>塑膠工業右下</t>
         </is>
       </c>
     </row>
@@ -3067,17 +3067,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>112923.974</t>
+          <t>13880.538</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3087,22 +3087,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>44.48</t>
+          <t>22.35</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>23.9</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -3112,72 +3112,72 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>33</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>59777</t>
+          <t>5338</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>117.0</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-2.67</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -3187,32 +3187,32 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>4767983501.0</t>
+          <t>1913095079.0</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>三芳</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -3222,42 +3222,42 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>185.38</t>
+          <t>17.41</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>60.31</t>
+          <t>57.54</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>379210</t>
+          <t>20846</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>熱軋鋼品40.17%、冷軋鋼33.97%、棒鋼及線材12.54%、鋼板7.18%、H型鋼3.71%、其他鋼品1.01%、其他(非鐵產品及副產品)0.72%、窄幅鋼板0.42%、鋼管0.28% (2023年)</t>
+          <t>濕式合成皮革61.59%、乾式合成皮革27.92%、其他9.19%、薄膜1.30% (2023年)</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>中鋼-鋼鐵工業-上市</t>
+          <t>三芳-塑膠工業-上市</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>塑膠工業右上</t>
         </is>
       </c>
     </row>
@@ -3269,17 +3269,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>57252.985</t>
+          <t>57322.068</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3289,22 +3289,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>18.84</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>34.95</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3314,72 +3314,72 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>216</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>38466</t>
+          <t>17176</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3389,32 +3389,32 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>-93021239.0</t>
+          <t>2108092614.0</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>華新</t>
+          <t>台泥</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>電器電纜</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -3424,444 +3424,40 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>11.57</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>41.01</t>
+          <t>29.24</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>21.47</t>
+          <t>22.74</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>114087</t>
+          <t>262781</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>商品銷售97.00%、其他3.00% (2024年)</t>
+          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>華新-電器電纜-上市</t>
+          <t>台泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
-        <is>
-          <t>電器電纜右下</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1314</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>25921.043</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>13.14</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>8.41</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>15604</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>79.0</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>-1.33</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>512177855.0</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>中石化</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>塑膠工業</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>25.94</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>57.91</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>31414</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>丙烯(月青),己內醯胺,尼龍粒100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>中石化-塑膠工業-上市</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>塑膠工業右下</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1101</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>57322.068</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>27309</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>71.0</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>2108092614.0</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>台泥</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>29.54</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>22.66</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>265424</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>台泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AN17" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
